--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_02.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_02.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Asuka Matsumoto</t>
+          <t>Maaya Inoue</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
